--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1186678.251800428</v>
+        <v>1236512.91607648</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484468</v>
+        <v>492028.9342484442</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6917699.418784895</v>
+        <v>6930325.682321817</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>104.8180737298426</v>
+        <v>219.9223816026577</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -671,7 +671,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -722,10 +722,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>165.7988048491508</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>173.5591556145158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>33.58079695703517</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>299.5279315896952</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.4435511245065</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>206.0370214115938</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1139,16 +1139,16 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>348.390293312867</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>252.8877930765919</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1291,7 +1291,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1300,7 +1300,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>210.1409105078477</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>151.5198608475128</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>386.0027999844979</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>389.4258469646091</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>43.48898701015866</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225666</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>236.0942751322826</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>173.7950029088929</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1771,16 +1771,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>28.46824604904504</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>60.78001549303686</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>154.4380635245658</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1904,7 +1904,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>216.0237438655893</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2014,10 +2014,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015839</v>
       </c>
       <c r="H19" t="n">
-        <v>103.3456594571959</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>166.1625368329217</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>32.67077719907016</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>186.753566802373</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225706</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>43.48898701015901</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>81.49380289235356</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>152.5168019860608</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2959,7 +2959,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>54.4936082835894</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>54.49360828358916</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,7 +3487,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>45.76594660771082</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3712,22 +3712,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>81.49380289235384</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>139.9514671241876</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3898,7 +3898,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3907,7 +3907,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3952,19 +3952,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>255.5560686765683</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>107.3792913045958</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.76104808841</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791304972</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>172.6623007436881</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>181.1449619021825</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>628.8817772575624</v>
+        <v>358.9145394787127</v>
       </c>
       <c r="C2" t="n">
-        <v>594.7797084813897</v>
+        <v>324.8124707025401</v>
       </c>
       <c r="D2" t="n">
-        <v>488.9028663300335</v>
+        <v>102.6686509018757</v>
       </c>
       <c r="E2" t="n">
-        <v>459.1685255287327</v>
+        <v>72.93431010057495</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>524.306084180564</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797686</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756281</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.297000382376</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1976.074697699393</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331261</v>
+        <v>1613.457747633219</v>
       </c>
       <c r="W2" t="n">
-        <v>670.4887227422939</v>
+        <v>1208.602293044252</v>
       </c>
       <c r="X2" t="n">
-        <v>655.3866633620087</v>
+        <v>789.459829623563</v>
       </c>
       <c r="Y2" t="n">
-        <v>651.1409437020661</v>
+        <v>381.1737059232164</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397427</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064434</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>446.7326829940195</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>446.7326829940195</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>446.7326829940195</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>446.7326829940195</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>446.7326829940195</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>953.3192701476978</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>785.8457298960303</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>619.967737097553</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>619.967737097553</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>443.2606830593092</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148766</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>410.4454242860122</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>828.6553060539733</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>1730.397976392531</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>2150.067225618312</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>2176.931226762442</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1889.975718632873</v>
       </c>
       <c r="W4" t="n">
-        <v>454.6477016666967</v>
+        <v>1617.949314219164</v>
       </c>
       <c r="X4" t="n">
-        <v>209.2559470001092</v>
+        <v>1372.557559552577</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.94366860160834</v>
+        <v>1145.137888866685</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>548.3728793740404</v>
+        <v>1786.45307593959</v>
       </c>
       <c r="C5" t="n">
-        <v>119.7912051113087</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2636.14082950513</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>2216.99836608444</v>
       </c>
       <c r="Y5" t="n">
-        <v>974.6724498589482</v>
+        <v>2212.752646424498</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>365.5392701431375</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C7" t="n">
-        <v>192.9775586263624</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>66.6195087848011</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>341.3779633559367</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>341.3779633559367</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>761.43086230084</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785789</v>
+        <v>2461.942622985374</v>
       </c>
       <c r="U7" t="n">
-        <v>1397.332608038895</v>
+        <v>2183.509622238479</v>
       </c>
       <c r="V7" t="n">
-        <v>1110.377099909325</v>
+        <v>1896.55411410891</v>
       </c>
       <c r="W7" t="n">
-        <v>838.3506954956167</v>
+        <v>1624.527709695201</v>
       </c>
       <c r="X7" t="n">
-        <v>592.9589408290292</v>
+        <v>1379.135955028614</v>
       </c>
       <c r="Y7" t="n">
-        <v>365.5392701431375</v>
+        <v>1151.716284342722</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>768.026741684583</v>
+        <v>428.7930370433824</v>
       </c>
       <c r="C8" t="n">
-        <v>733.9246729084105</v>
+        <v>394.6909682672097</v>
       </c>
       <c r="D8" t="n">
-        <v>702.0552921232591</v>
+        <v>362.8215874820583</v>
       </c>
       <c r="E8" t="n">
-        <v>350.1459049385449</v>
+        <v>333.0872466807575</v>
       </c>
       <c r="F8" t="n">
-        <v>326.3188793881567</v>
+        <v>309.2602211303693</v>
       </c>
       <c r="G8" t="n">
-        <v>326.3188793881567</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137292</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851293</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114308</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>472.0266229114308</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105284</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105284</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105284</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>927.0793242105284</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873492</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.44270817259</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925647</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925647</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1618.529545798685</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1618.529545798685</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1618.529545798685</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W8" t="n">
-        <v>1617.714495250123</v>
+        <v>1682.521194649326</v>
       </c>
       <c r="X8" t="n">
-        <v>1198.572031829433</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="Y8" t="n">
-        <v>790.2859081290868</v>
+        <v>855.0926075282902</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498057</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.487219286448</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330013</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.276515759955</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761166</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230045</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851293</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897053</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851829</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842803</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842803</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842803</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>842.4466348842803</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716307</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114682</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503481</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295688</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>943.2683845536193</v>
+        <v>955.7523231022661</v>
       </c>
       <c r="C10" t="n">
-        <v>943.2683845536193</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D10" t="n">
-        <v>777.390391755142</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E10" t="n">
-        <v>607.6323880058792</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676354</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934631</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838376</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851293</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232028</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943383</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>398.1100751943383</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>853.1627764934357</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1295.42157965108</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.089878955305</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925647</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925647</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925647</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925647</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925647</v>
+        <v>2457.797280463905</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.163772178752</v>
+        <v>2179.364279717011</v>
       </c>
       <c r="V10" t="n">
-        <v>1407.113407686315</v>
+        <v>1892.408771587441</v>
       </c>
       <c r="W10" t="n">
-        <v>1135.087003272606</v>
+        <v>1620.382367173733</v>
       </c>
       <c r="X10" t="n">
-        <v>1135.087003272606</v>
+        <v>1374.990612507145</v>
       </c>
       <c r="Y10" t="n">
-        <v>1135.087003272606</v>
+        <v>1147.570941821253</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2511.879170851548</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>2073.736698034971</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D11" t="n">
-        <v>1637.826913209416</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.052168367711</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>776.1847387769185</v>
+        <v>787.6807519874947</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>386.2829206107585</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397511</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111512</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>531.990664134033</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940402</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940402</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510708</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344104</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302699</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055756</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239593</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112631</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4533.079733112631</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="V11" t="n">
-        <v>4170.462783046458</v>
+        <v>4170.462783046461</v>
       </c>
       <c r="W11" t="n">
-        <v>3765.607328457491</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3346.464865036802</v>
+        <v>3357.960878247378</v>
       </c>
       <c r="Y11" t="n">
-        <v>2938.178741336455</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D12" t="n">
         <v>401.3609716556035</v>
@@ -5109,13 +5109,13 @@
         <v>223.8567185987188</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649026</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111512</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
         <v>447.3579748077851</v>
@@ -5133,7 +5133,7 @@
         <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5160,10 +5160,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>965.4711828007305</v>
+        <v>947.2320137580467</v>
       </c>
       <c r="C13" t="n">
-        <v>792.9094712839554</v>
+        <v>774.6703022412717</v>
       </c>
       <c r="D13" t="n">
-        <v>627.0314784854781</v>
+        <v>608.7923094427945</v>
       </c>
       <c r="E13" t="n">
-        <v>457.2734747362153</v>
+        <v>439.0343056935317</v>
       </c>
       <c r="F13" t="n">
-        <v>280.5664206979716</v>
+        <v>262.3272516552879</v>
       </c>
       <c r="G13" t="n">
-        <v>236.6381509907406</v>
+        <v>96.73597668111552</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111512</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111512</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169405</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2713.395586583914</v>
+        <v>2695.156417541231</v>
       </c>
       <c r="T13" t="n">
-        <v>2467.51614016237</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U13" t="n">
-        <v>2189.083139415475</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V13" t="n">
-        <v>1902.127631285905</v>
+        <v>1883.888462243222</v>
       </c>
       <c r="W13" t="n">
-        <v>1630.101226872197</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X13" t="n">
-        <v>1384.709472205609</v>
+        <v>1366.470303162926</v>
       </c>
       <c r="Y13" t="n">
-        <v>1157.289801519718</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2472.724095295525</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>2034.581622478948</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D14" t="n">
-        <v>1598.671837653393</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>1164.897092811688</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>737.0296632208957</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>335.6318318441596</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.1527660539751</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.7359766811151</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>96.7359766811151</v>
+        <v>521.7292312988378</v>
       </c>
       <c r="K14" t="n">
-        <v>931.0862686392931</v>
+        <v>1356.079523257016</v>
       </c>
       <c r="L14" t="n">
-        <v>2006.146234892152</v>
+        <v>1356.079523257016</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693457</v>
+        <v>1356.079523257016</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693457</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263764</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.30004809716</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055755</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055755</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239592</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T14" t="n">
-        <v>4753.146960239592</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U14" t="n">
-        <v>4493.924657556609</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V14" t="n">
-        <v>4131.307707490435</v>
+        <v>4181.958796257034</v>
       </c>
       <c r="W14" t="n">
-        <v>3726.452252901468</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3307.309789480779</v>
+        <v>3357.960878247378</v>
       </c>
       <c r="Y14" t="n">
-        <v>2899.023665780433</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D15" t="n">
         <v>401.3609716556035</v>
@@ -5346,19 +5346,19 @@
         <v>223.8567185987188</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649026</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.7359766811151</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
         <v>1102.064021433509</v>
@@ -5397,10 +5397,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987281</v>
+        <v>806.2298140987274</v>
       </c>
       <c r="C16" t="n">
-        <v>633.668102581953</v>
+        <v>633.6681025819523</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7901097834757</v>
+        <v>467.790109783475</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>298.0321060342122</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>298.0321060342122</v>
       </c>
       <c r="G16" t="n">
-        <v>96.7359766811151</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H16" t="n">
-        <v>96.7359766811151</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
-        <v>96.7359766811151</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169405</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5464,22 +5464,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U16" t="n">
         <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583903</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
         <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503607</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177151</v>
+        <v>998.0484328177145</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689265</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872689</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047133</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205428</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.2639626146361</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
         <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
-        <v>96.73597668111513</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>931.0862686392931</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2006.146234892152</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2006.146234892152</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940403</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510709</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344105</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.6447693027</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239594</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112632</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429649</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363475</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774509</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.24256235382</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653473</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C18" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D18" t="n">
         <v>401.3609716556035</v>
@@ -5586,28 +5586,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
         <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5634,10 +5634,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X18" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1051.621568765315</v>
+        <v>965.4711828007302</v>
       </c>
       <c r="C19" t="n">
-        <v>879.05985724854</v>
+        <v>792.9094712839551</v>
       </c>
       <c r="D19" t="n">
-        <v>713.1818644500627</v>
+        <v>627.0314784854779</v>
       </c>
       <c r="E19" t="n">
-        <v>543.4238607007999</v>
+        <v>457.2734747362151</v>
       </c>
       <c r="F19" t="n">
-        <v>366.7168066625561</v>
+        <v>280.5664206979714</v>
       </c>
       <c r="G19" t="n">
-        <v>201.1255316883838</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1902.127631285905</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X19" t="n">
-        <v>1470.859858170194</v>
+        <v>1384.709472205609</v>
       </c>
       <c r="Y19" t="n">
-        <v>1243.440187484302</v>
+        <v>1157.289801519717</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168569</v>
       </c>
       <c r="C20" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>787.680751987495</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397513</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5756,46 +5756,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>1366.340956092211</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940403</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510709</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344105</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.6447693027</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4803.798049006191</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4803.798049006191</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.958796257034</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C21" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D21" t="n">
         <v>401.3609716556035</v>
@@ -5823,10 +5823,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I21" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
         <v>447.3579748077851</v>
@@ -5871,10 +5871,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X21" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580467</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412717</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D22" t="n">
         <v>608.7923094427941</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935314</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552876</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S22" t="n">
-        <v>2695.15641754123</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119686</v>
+        <v>2446.098318867742</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.843970372791</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.888462243222</v>
+        <v>1880.709809991278</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.862057829513</v>
+        <v>1608.683405577569</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162926</v>
+        <v>1363.291650910982</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477034</v>
+        <v>1135.87198022509</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903953</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736203</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>632.556342075143</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258802</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>286.0912842876364</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2455.944287558409</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.60800300514</v>
+        <v>2177.511286811514</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461862</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109383</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130894</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.995166752589</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751425</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258799</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F31" t="n">
         <v>407.7542895545774</v>
@@ -6631,13 +6631,13 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
         <v>2718.920450173579</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2663.876401402277</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2417.996954980732</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2139.563954233837</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1852.608446104268</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1335.190287023972</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="32">
@@ -6698,16 +6698,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6923,40 +6923,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.8521152449518</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1408.738671568553</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1181.319000882661</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,52 +7172,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7312,16 +7312,16 @@
         <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674088</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>673.121292818146</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799022</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7360,19 +7360,19 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2455.944287558408</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2177.511286811514</v>
       </c>
       <c r="V40" t="n">
-        <v>1872.583694701248</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W40" t="n">
-        <v>1600.55729028754</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y40" t="n">
         <v>1373.137619601648</v>
@@ -7391,19 +7391,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7418,13 +7418,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3271.658179390882</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>4397.38916282733</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
@@ -7448,7 +7448,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F43" t="n">
         <v>496.4142387799021</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2055.662191942386</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878939</v>
+        <v>1768.706683812817</v>
       </c>
       <c r="W43" t="n">
-        <v>1726.993304878939</v>
+        <v>1496.680279399108</v>
       </c>
       <c r="X43" t="n">
-        <v>1481.601550212351</v>
+        <v>1251.288524732521</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>1023.868854046629</v>
       </c>
     </row>
     <row r="44">
@@ -7625,22 +7625,22 @@
         <v>2528.900047651788</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771586</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004225</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436387</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7658,16 +7658,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
         <v>5113.04201353898</v>
@@ -7685,7 +7685,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837042</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D46" t="n">
         <v>842.8792965674086</v>
@@ -7822,34 +7822,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309244</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878948</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176944</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755399</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2117.975449367836</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>40.34758805803972</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,7 +8058,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>47.47818213854828</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>223.0854642319582</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>308.3808099909343</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8213,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,22 +8371,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>33.00589917494217</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314117</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706708</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314116</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314116</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.221800666267</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314116</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,22 +8614,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314116</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>197.644746771944</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>955.8742281294858</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>429.2861157754775</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>480.4689614154597</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,10 +9006,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N17" t="n">
-        <v>309.6062697457076</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9404,13 +9404,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N20" t="n">
-        <v>955.8742281294867</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10838,13 +10838,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,16 +11066,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>833.0630236930783</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>314.2706063049986</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>11.38105307847087</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>11.38105307846791</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>120.4463752142719</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627266</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>50.14457787893329</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>185.1957776566189</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>139.5921776627251</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>103.1553467313937</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>267.5985112554929</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>184.7831561774877</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>120.4463752142722</v>
       </c>
       <c r="H19" t="n">
-        <v>35.15749310933337</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>267.5985112554893</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.1445778789312</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627262</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>37.38363054573639</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>120.4463752142719</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>103.1553467313941</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>197.1718905122108</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25600,22 +25600,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>161.9268490649754</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>144.1344859240862</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,19 +25840,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>20.09260206285737</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>117.766182674437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>102.9863699957376</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>44.00051207685028</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>602026.3450701517</v>
+        <v>605914.0511308267</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>602026.3450701517</v>
+        <v>607014.9458932186</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>602751.4669828988</v>
+        <v>607014.9458932186</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>581865.6918078028</v>
+        <v>581865.6918078031</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>581865.6918078028</v>
+        <v>581865.6918078031</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>581865.6918078028</v>
+        <v>581865.6918078031</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>581865.691807803</v>
+        <v>581865.6918078032</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>606421.0889105077</v>
+        <v>606421.0889105076</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>606421.0889105077</v>
+        <v>606421.0889105076</v>
       </c>
     </row>
     <row r="15">
@@ -26314,25 +26314,25 @@
         <v>348495.7579287654</v>
       </c>
       <c r="C2" t="n">
-        <v>348495.7579287654</v>
+        <v>348495.7579287656</v>
       </c>
       <c r="D2" t="n">
         <v>348495.7579287654</v>
       </c>
       <c r="E2" t="n">
-        <v>328590.5336815896</v>
+        <v>328590.5336815898</v>
       </c>
       <c r="F2" t="n">
-        <v>328590.5336815894</v>
+        <v>328590.5336815897</v>
       </c>
       <c r="G2" t="n">
-        <v>328590.5336815896</v>
+        <v>328590.5336815898</v>
       </c>
       <c r="H2" t="n">
-        <v>328590.5336815895</v>
+        <v>328590.5336815897</v>
       </c>
       <c r="I2" t="n">
-        <v>342457.4296892789</v>
+        <v>342457.4296892788</v>
       </c>
       <c r="J2" t="n">
         <v>342457.4296892789</v>
@@ -26350,7 +26350,7 @@
         <v>342457.4296892789</v>
       </c>
       <c r="O2" t="n">
-        <v>342457.4296892788</v>
+        <v>342457.429689279</v>
       </c>
       <c r="P2" t="n">
         <v>342457.4296892789</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039029</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390668</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200339</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520265</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283964</v>
+        <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784516</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510475</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104669</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>141940.3832228851</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>174066.4702932118</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>26563.08616012787</v>
+        <v>26563.08616012788</v>
       </c>
       <c r="F4" t="n">
-        <v>26563.08616012787</v>
+        <v>26563.08616012788</v>
       </c>
       <c r="G4" t="n">
-        <v>26563.08616012787</v>
+        <v>26563.08616012788</v>
       </c>
       <c r="H4" t="n">
-        <v>26563.08616012787</v>
+        <v>26563.08616012789</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26457,7 +26457,7 @@
         <v>27684.07875020268</v>
       </c>
       <c r="P4" t="n">
-        <v>27684.07875020267</v>
+        <v>27684.07875020268</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814192</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846983</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764749</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764748</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764751</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764751</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,10 +26500,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
+        <v>77718.23860579252</v>
+      </c>
+      <c r="N5" t="n">
         <v>77718.2386057925</v>
-      </c>
-      <c r="N5" t="n">
-        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
         <v>77718.2386057925</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-34552.71732862893</v>
+        <v>-70106.01805616447</v>
       </c>
       <c r="C6" t="n">
-        <v>107638.583331081</v>
+        <v>126185.3887610813</v>
       </c>
       <c r="D6" t="n">
-        <v>101873.2100150803</v>
+        <v>143525.9331349878</v>
       </c>
       <c r="E6" t="n">
-        <v>4708.811491787841</v>
+        <v>66696.47147890319</v>
       </c>
       <c r="F6" t="n">
-        <v>228508.1052438141</v>
+        <v>228431.5466890175</v>
       </c>
       <c r="G6" t="n">
-        <v>228508.1052438142</v>
+        <v>228431.5466890175</v>
       </c>
       <c r="H6" t="n">
-        <v>228508.1052438141</v>
+        <v>228431.5466890175</v>
       </c>
       <c r="I6" t="n">
-        <v>218690.396700444</v>
+        <v>218667.1723610615</v>
       </c>
       <c r="J6" t="n">
-        <v>126040.6469882935</v>
+        <v>76424.0585082878</v>
       </c>
       <c r="K6" t="n">
-        <v>237055.1123332837</v>
+        <v>223217.8794260559</v>
       </c>
       <c r="L6" t="n">
-        <v>228107.5012447732</v>
+        <v>237031.8879939011</v>
       </c>
       <c r="M6" t="n">
-        <v>50264.12572281691</v>
+        <v>102041.9433808976</v>
       </c>
       <c r="N6" t="n">
-        <v>237055.1123332837</v>
+        <v>237031.8879939011</v>
       </c>
       <c r="O6" t="n">
-        <v>237055.1123332836</v>
+        <v>237031.8879939012</v>
       </c>
       <c r="P6" t="n">
-        <v>237055.1123332837</v>
+        <v>237031.8879939011</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314116</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052269</v>
       </c>
       <c r="D4" t="n">
-        <v>35.3533357113073</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825273</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080615</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052269</v>
       </c>
       <c r="L4" t="n">
-        <v>35.3533357113073</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282527</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052269</v>
       </c>
       <c r="L4" t="n">
-        <v>35.3533357113073</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825273</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>326.7326132474573</v>
+        <v>211.6283053746422</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27430,7 +27430,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>5.037289552456514</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>367.2261030860419</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>104.6753308736479</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>6.775661745986042</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>37.38363054573546</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,16 +27859,16 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>81.0467040804208</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>144.4960599863768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>33.27974144948155</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>132.566092200761</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>40.34758805803972</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,7 +34778,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>47.47818213854828</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>223.0854642319582</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>308.3808099909343</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>33.00589917494217</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314117</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706708</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314116</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314116</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.221800666267</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314116</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314116</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>197.644746771944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>955.8742281294858</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>429.2861157754775</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>480.4689614154597</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35726,10 +35726,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35890,10 +35890,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N17" t="n">
-        <v>309.6062697457076</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36045,16 +36045,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N20" t="n">
-        <v>955.8742281294867</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36282,16 +36282,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645581</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -37008,7 +37008,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37473,10 +37473,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37558,13 +37558,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37786,16 +37786,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>833.0630236930783</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>314.2706063049986</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165034</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>
